--- a/Worksheets/PRSG BOM.xlsx
+++ b/Worksheets/PRSG BOM.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\OneDrive\Documents\GitHub\prsg-misc\Worksheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="-180" windowWidth="16200" windowHeight="11370"/>
+    <workbookView xWindow="9168" yWindow="-180" windowWidth="16200" windowHeight="11376"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -152,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,6 +235,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -277,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,18 +535,18 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -567,7 +575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -582,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -597,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -616,7 +624,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -632,7 +640,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -648,7 +656,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -667,7 +675,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -683,7 +691,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -702,7 +710,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -720,7 +728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
@@ -738,13 +746,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14">
         <f>SUM(D7:D13)</f>
         <v>105.76000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -770,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -788,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -806,17 +814,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -831,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -846,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -864,12 +872,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -884,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -899,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -917,12 +925,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -934,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -946,12 +954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -966,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -981,7 +989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1031,19 +1039,19 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
     </row>
   </sheetData>
